--- a/fuentes/contenidos/grado08/guion05/Solicitud_Grafica_LE_08_05_REC320.xlsx
+++ b/fuentes/contenidos/grado08/guion05/Solicitud_Grafica_LE_08_05_REC320.xlsx
@@ -21,7 +21,7 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="206">
   <si>
     <t>Fecha:</t>
   </si>
@@ -616,18 +616,6 @@
     <t>El presidente Theodore Roosevelt visitando los trabajos de construcción del canal de Panamá</t>
   </si>
   <si>
-    <t>http://www.banrepcultural.org/node/64929</t>
-  </si>
-  <si>
-    <t>Julio Flórez en el camposanto.</t>
-  </si>
-  <si>
-    <t>http://www.banrepcultural.org/blaavirtual/biografias/carredua.htm</t>
-  </si>
-  <si>
-    <t>Eduardo Carranza</t>
-  </si>
-  <si>
     <t>Umberto Boccioni Estudio para La ciudad crece, 1910 (Pinacoteca de Brera, Milán, Italia)</t>
   </si>
   <si>
@@ -637,31 +625,31 @@
     <t>Futurismo Formas únicas en la continuidad del espacio, por Umberto Boccioni, 1913 (MOMA, Nueva York, EUA)</t>
   </si>
   <si>
-    <t>http://www.banrepcultural.org/blaavirtual/revistas/credencial/noviembre2006/novela.htm</t>
-  </si>
-  <si>
-    <t>Lorenzo Marroquín</t>
-  </si>
-  <si>
     <t>SHUTTER: 125091464</t>
   </si>
   <si>
-    <t>http://www.banrepcultural.org/blaavirtual/biografias/greileon.htm</t>
-  </si>
-  <si>
-    <t>León de Greiff</t>
-  </si>
-  <si>
     <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=9&amp;idpil=0007CB01&amp;ruta=Buscador</t>
   </si>
   <si>
     <t>Misterio bufo por Vladímir V. Maiakovski, 1918 (Museo Maiakovski, Moscú, Rusia)</t>
   </si>
   <si>
-    <t>http://www.banrepcultural.org/node/86383</t>
-  </si>
-  <si>
-    <t>Contertulios del Café El Automático: Juan Lozano y Lozano, León de Greiff, Ignacio Gómez Jaramillo, Jorge Zalamea. Detrás: Omar Rayo, Hernán Merino, Marco Ospina, Hernando Téllez Blanco, Arturo Camacho Ramírez. Caricatura de Mardoqueo Montaña, 1966.</t>
+    <t>Vector set Traditional vintage white round Greek ornament</t>
+  </si>
+  <si>
+    <t>Máscaras de teatro</t>
+  </si>
+  <si>
+    <t>Ship moves through the Miraflores Lock of Panama Canal, ca. 1915</t>
+  </si>
+  <si>
+    <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idreg=54333&amp;ruta=Buscador</t>
+  </si>
+  <si>
+    <t>Jungle forest. Tropical trees in Asia. Beautiful adventure nature landscape background with hike road in deep rain forest of Thailand</t>
+  </si>
+  <si>
+    <t>Jungle</t>
   </si>
 </sst>
 </file>
@@ -2539,7 +2527,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2875,8 +2863,8 @@
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>194</v>
+      <c r="B11" s="62">
+        <v>225006517</v>
       </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
@@ -2904,22 +2892,22 @@
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J11" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="K11" s="65"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65" t="s">
+        <v>200</v>
+      </c>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>196</v>
+      <c r="B12" s="62">
+        <v>247369855</v>
       </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
@@ -2947,10 +2935,10 @@
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J12" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="K12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64" t="s">
+        <v>201</v>
+      </c>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
@@ -2991,7 +2979,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
@@ -3005,7 +2993,7 @@
         <v>IMG05</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3034,7 +3022,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
@@ -3042,13 +3030,13 @@
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
       </c>
-      <c r="B15" s="62" t="s">
-        <v>201</v>
+      <c r="B15" s="62">
+        <v>244390180</v>
       </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3076,10 +3064,10 @@
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J15" s="66" t="s">
+      <c r="J15" s="66"/>
+      <c r="K15" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="K15" s="66"/>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
@@ -3091,7 +3079,7 @@
         <v>IMG07</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3120,19 +3108,21 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J16" s="67"/>
-      <c r="K16" s="68"/>
+      <c r="K16" s="68" t="s">
+        <v>205</v>
+      </c>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG08</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3161,7 +3151,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J17" s="66" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="K17" s="66"/>
       <c r="O17" s="2" t="str">
@@ -3175,7 +3165,7 @@
         <v>IMG09</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3204,7 +3194,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J18" s="66" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="K18" s="66"/>
       <c r="O18" s="2" t="str">
@@ -3212,13 +3202,13 @@
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="108" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="57" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v>IMG10</v>
       </c>
-      <c r="B19" s="62" t="s">
-        <v>208</v>
+      <c r="B19" s="62">
+        <v>112693282</v>
       </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3246,10 +3236,10 @@
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J19" s="67" t="s">
-        <v>209</v>
-      </c>
-      <c r="K19" s="68"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68" t="s">
+        <v>204</v>
+      </c>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
         <v>F10</v>
